--- a/proj1/result.xlsx
+++ b/proj1/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Raymond/Downloads/cs575/proj1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019ACAF-48B2-F74E-B4D4-376C497B23E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB70FBC0-B920-8A4B-9D74-FD7A2399D74F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="7640" windowWidth="25040" windowHeight="14500" xr2:uid="{576CE2D3-302A-B148-8548-815C904D46B2}"/>
+    <workbookView xWindow="2180" yWindow="540" windowWidth="25040" windowHeight="14500" xr2:uid="{576CE2D3-302A-B148-8548-815C904D46B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,17 +171,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>Performance vs. Number of Trials</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
+            <a:endParaRPr lang="en-US">
               <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -287,16 +283,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.0775000000000006</c:v>
+                  <c:v>9.2721999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3101000000000003</c:v>
+                  <c:v>9.8886000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2370000000000001</c:v>
+                  <c:v>9.9326000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.4084</c:v>
+                  <c:v>19.042100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -304,7 +300,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E37-1C42-9321-D20D43632E6D}"/>
+              <c16:uniqueId val="{00000000-83B0-CF4E-9EDB-369EF356F445}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -374,16 +370,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.4636</c:v>
+                  <c:v>11.8819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.456399999999999</c:v>
+                  <c:v>19.976900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.361599999999999</c:v>
+                  <c:v>19.7317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.278400000000001</c:v>
+                  <c:v>19.6418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,7 +387,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E37-1C42-9321-D20D43632E6D}"/>
+              <c16:uniqueId val="{00000001-83B0-CF4E-9EDB-369EF356F445}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -461,16 +457,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>14.6242</c:v>
+                  <c:v>15.1653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.037199999999999</c:v>
+                  <c:v>38.262900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.590800000000002</c:v>
+                  <c:v>39.272799999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.366199999999999</c:v>
+                  <c:v>39.5291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,7 +474,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8E37-1C42-9321-D20D43632E6D}"/>
+              <c16:uniqueId val="{00000002-83B0-CF4E-9EDB-369EF356F445}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -548,16 +544,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.9795</c:v>
+                  <c:v>16.398599999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.919499999999999</c:v>
+                  <c:v>74.167400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.656300000000002</c:v>
+                  <c:v>76.674199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.439400000000006</c:v>
+                  <c:v>77.989900000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,7 +561,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8E37-1C42-9321-D20D43632E6D}"/>
+              <c16:uniqueId val="{00000003-83B0-CF4E-9EDB-369EF356F445}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -577,11 +573,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1435648528"/>
-        <c:axId val="1483202752"/>
+        <c:axId val="1537940576"/>
+        <c:axId val="1518183200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1435648528"/>
+        <c:axId val="1537940576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,12 +634,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1483202752"/>
+        <c:crossAx val="1518183200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1483202752"/>
+        <c:axId val="1518183200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +696,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1435648528"/>
+        <c:crossAx val="1537940576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -821,17 +817,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
               <a:t>Performance vs. Number of Threads</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
+            <a:endParaRPr lang="en-US">
               <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -937,16 +929,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.0775000000000006</c:v>
+                  <c:v>9.2721999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4636</c:v>
+                  <c:v>11.8819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.6242</c:v>
+                  <c:v>15.1653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.9795</c:v>
+                  <c:v>16.398599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,7 +946,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5747-C64A-9EDD-50695A30C131}"/>
+              <c16:uniqueId val="{00000000-5D4F-8546-90E6-96FC8CD0EFDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1024,16 +1016,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.3101000000000003</c:v>
+                  <c:v>9.8886000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.456399999999999</c:v>
+                  <c:v>19.976900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.037199999999999</c:v>
+                  <c:v>38.262900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.919499999999999</c:v>
+                  <c:v>74.167400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,7 +1033,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5747-C64A-9EDD-50695A30C131}"/>
+              <c16:uniqueId val="{00000001-5D4F-8546-90E6-96FC8CD0EFDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1111,16 +1103,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.2370000000000001</c:v>
+                  <c:v>9.9326000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.361599999999999</c:v>
+                  <c:v>19.7317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.590800000000002</c:v>
+                  <c:v>39.272799999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.656300000000002</c:v>
+                  <c:v>76.674199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1120,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5747-C64A-9EDD-50695A30C131}"/>
+              <c16:uniqueId val="{00000002-5D4F-8546-90E6-96FC8CD0EFDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1198,16 +1190,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.4084</c:v>
+                  <c:v>19.042100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.278400000000001</c:v>
+                  <c:v>19.6418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.366199999999999</c:v>
+                  <c:v>39.5291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.439400000000006</c:v>
+                  <c:v>77.989900000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,7 +1207,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5747-C64A-9EDD-50695A30C131}"/>
+              <c16:uniqueId val="{00000003-5D4F-8546-90E6-96FC8CD0EFDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,11 +1219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1474249088"/>
-        <c:axId val="1466673392"/>
+        <c:axId val="1510954688"/>
+        <c:axId val="1514805616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1474249088"/>
+        <c:axId val="1510954688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,12 +1280,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1466673392"/>
+        <c:crossAx val="1514805616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1466673392"/>
+        <c:axId val="1514805616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1474249088"/>
+        <c:crossAx val="1510954688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2554,22 +2546,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>738174</xdr:colOff>
+      <xdr:colOff>542151</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>29797</xdr:rowOff>
+      <xdr:rowOff>26467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>371285</xdr:colOff>
+      <xdr:colOff>183562</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>174201</xdr:rowOff>
+      <xdr:rowOff>186978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E3C183-996B-C44C-B28F-91CC8B75A082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78033EC3-1347-F449-A289-4F726B34FFF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,22 +2582,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>276240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>210787</xdr:rowOff>
+      <xdr:colOff>232655</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>239912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>208446</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>108247</xdr:rowOff>
+      <xdr:colOff>162218</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E9736D-0D97-0B45-B29C-198876B7DF37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D16689-A59D-4A4B-A5BE-3FBCD2A8A6D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC23E0A4-7FF4-9C49-8693-F7FF90153D52}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="119" workbookViewId="0">
+      <selection activeCell="J8" sqref="F4:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2964,10 +2956,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="D2" s="1">
-        <v>8.0775000000000006</v>
+        <v>9.2721999999999998</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2980,10 +2972,10 @@
         <v>10000</v>
       </c>
       <c r="C3" s="1">
-        <v>0.18579999999999999</v>
+        <v>0.1326</v>
       </c>
       <c r="D3" s="1">
-        <v>9.3101000000000003</v>
+        <v>9.8886000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
@@ -2994,10 +2986,10 @@
         <v>100000</v>
       </c>
       <c r="C4" s="1">
-        <v>0.19070000000000001</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>9.2370000000000001</v>
+        <v>9.9326000000000008</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
@@ -3021,25 +3013,25 @@
         <v>1000000</v>
       </c>
       <c r="C5" s="1">
-        <v>0.19</v>
+        <v>0.13109999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>17.4084</v>
+        <v>19.042100000000001</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>8.0775000000000006</v>
+        <v>9.2721999999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>9.3101000000000003</v>
+        <v>9.8886000000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>9.2370000000000001</v>
+        <v>9.9326000000000008</v>
       </c>
       <c r="J5" s="1">
-        <v>17.4084</v>
+        <v>19.042100000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.2">
@@ -3050,25 +3042,25 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="D6" s="1">
-        <v>14.4636</v>
+        <v>11.8819</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>14.4636</v>
+        <v>11.8819</v>
       </c>
       <c r="H6" s="1">
-        <v>18.456399999999999</v>
+        <v>19.976900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>18.361599999999999</v>
+        <v>19.7317</v>
       </c>
       <c r="J6" s="1">
-        <v>18.278400000000001</v>
+        <v>19.6418</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" x14ac:dyDescent="0.2">
@@ -3079,25 +3071,25 @@
         <v>10000</v>
       </c>
       <c r="C7" s="1">
-        <v>0.1895</v>
+        <v>0.1303</v>
       </c>
       <c r="D7" s="1">
-        <v>18.456399999999999</v>
+        <v>19.976900000000001</v>
       </c>
       <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>14.6242</v>
+        <v>15.1653</v>
       </c>
       <c r="H7" s="1">
-        <v>36.037199999999999</v>
+        <v>38.262900000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>36.590800000000002</v>
+        <v>39.272799999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>36.366199999999999</v>
+        <v>39.5291</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" x14ac:dyDescent="0.2">
@@ -3108,26 +3100,26 @@
         <v>100000</v>
       </c>
       <c r="C8" s="1">
-        <v>0.19120000000000001</v>
+        <v>0.1326</v>
       </c>
       <c r="D8" s="1">
-        <v>18.361599999999999</v>
+        <v>19.7317</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3">
         <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>15.9795</v>
+        <v>16.398599999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>70.919499999999999</v>
+        <v>74.167400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>71.656300000000002</v>
+        <v>76.674199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>73.439400000000006</v>
+        <v>77.989900000000006</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.2">
@@ -3138,10 +3130,10 @@
         <v>1000000</v>
       </c>
       <c r="C9" s="1">
-        <v>0.1898</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>18.278400000000001</v>
+        <v>19.6418</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3157,10 +3149,10 @@
         <v>100</v>
       </c>
       <c r="C10" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D10" s="1">
-        <v>14.6242</v>
+        <v>15.1653</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3176,10 +3168,10 @@
         <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>0.18779999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>36.037199999999999</v>
+        <v>38.262900000000002</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -3195,10 +3187,10 @@
         <v>100000</v>
       </c>
       <c r="C12" s="1">
-        <v>0.19170000000000001</v>
+        <v>0.13189999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>36.590800000000002</v>
+        <v>39.272799999999997</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3214,10 +3206,10 @@
         <v>1000000</v>
       </c>
       <c r="C13" s="1">
-        <v>0.1903</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>36.366199999999999</v>
+        <v>39.5291</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -3233,10 +3225,10 @@
         <v>100</v>
       </c>
       <c r="C14" s="1">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="D14" s="1">
-        <v>15.9795</v>
+        <v>16.398599999999998</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -3252,10 +3244,10 @@
         <v>10000</v>
       </c>
       <c r="C15" s="1">
-        <v>0.19350000000000001</v>
+        <v>0.1333</v>
       </c>
       <c r="D15" s="1">
-        <v>70.919499999999999</v>
+        <v>74.167400000000001</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3271,10 +3263,10 @@
         <v>100000</v>
       </c>
       <c r="C16" s="1">
-        <v>0.1915</v>
+        <v>0.13320000000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>71.656300000000002</v>
+        <v>76.674199999999999</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3290,10 +3282,10 @@
         <v>1000000</v>
       </c>
       <c r="C17" s="1">
-        <v>0.1898</v>
+        <v>0.13139999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>73.439400000000006</v>
+        <v>77.989900000000006</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
